--- a/results/24hr_ensembled2.xlsx
+++ b/results/24hr_ensembled2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>estimator</t>
   </si>
@@ -265,6 +265,192 @@
    micro avg       0.84      0.84      0.84       240
    macro avg       0.84      0.84      0.84       240
 weighted avg       0.84      0.84      0.84       240
+</t>
+  </si>
+  <si>
+    <t>Best Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.71      0.76      0.74        33
+           1       0.68      0.63      0.65        27
+   micro avg       0.70      0.70      0.70        60
+   macro avg       0.70      0.69      0.69        60
+weighted avg       0.70      0.70      0.70        60
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.86      0.79      0.83       126
+           1       0.79      0.86      0.82       114
+   micro avg       0.82      0.82      0.82       240
+   macro avg       0.83      0.83      0.82       240
+weighted avg       0.83      0.82      0.83       240
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.77      0.73      0.75        33
+           1       0.69      0.74      0.71        27
+   micro avg       0.73      0.73      0.73        60
+   macro avg       0.73      0.73      0.73        60
+weighted avg       0.74      0.73      0.73        60
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.70      0.70      0.70        33
+           1       0.63      0.63      0.63        27
+   micro avg       0.67      0.67      0.67        60
+   macro avg       0.66      0.66      0.66        60
+weighted avg       0.67      0.67      0.67        60
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.85      0.84      0.85       126
+           1       0.83      0.84      0.83       114
+   micro avg       0.84      0.84      0.84       240
+   macro avg       0.84      0.84      0.84       240
+weighted avg       0.84      0.84      0.84       240
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.75      0.82      0.78        33
+           1       0.75      0.67      0.71        27
+   micro avg       0.75      0.75      0.75        60
+   macro avg       0.75      0.74      0.74        60
+weighted avg       0.75      0.75      0.75        60
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.92      0.90      0.91       126
+           1       0.90      0.91      0.90       114
+   micro avg       0.91      0.91      0.91       240
+   macro avg       0.91      0.91      0.91       240
+weighted avg       0.91      0.91      0.91       240
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.76      0.79      0.78        33
+           1       0.73      0.70      0.72        27
+   micro avg       0.75      0.75      0.75        60
+   macro avg       0.75      0.75      0.75        60
+weighted avg       0.75      0.75      0.75        60
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.73      0.82      0.77        33
+           1       0.74      0.63      0.68        27
+   micro avg       0.73      0.73      0.73        60
+   macro avg       0.73      0.72      0.73        60
+weighted avg       0.73      0.73      0.73        60
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.92      0.86      0.89       126
+           1       0.85      0.91      0.88       114
+   micro avg       0.88      0.88      0.88       240
+   macro avg       0.88      0.88      0.88       240
+weighted avg       0.89      0.88      0.88       240
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.77      0.70      0.73        33
+           1       0.67      0.74      0.70        27
+   micro avg       0.72      0.72      0.72        60
+   macro avg       0.72      0.72      0.72        60
+weighted avg       0.72      0.72      0.72        60
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.97      0.97      0.97       126
+           1       0.96      0.96      0.96       114
+   micro avg       0.97      0.97      0.97       240
+   macro avg       0.97      0.97      0.97       240
+weighted avg       0.97      0.97      0.97       240
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.80      0.85      0.82        33
+           1       0.80      0.74      0.77        27
+   micro avg       0.80      0.80      0.80        60
+   macro avg       0.80      0.79      0.80        60
+weighted avg       0.80      0.80      0.80        60
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.89      0.85      0.87       126
+           1       0.84      0.89      0.86       114
+   micro avg       0.87      0.87      0.87       240
+   macro avg       0.87      0.87      0.87       240
+weighted avg       0.87      0.87      0.87       240
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.90      0.83      0.86       126
+           1       0.83      0.89      0.86       114
+   micro avg       0.86      0.86      0.86       240
+   macro avg       0.86      0.86      0.86       240
+weighted avg       0.87      0.86      0.86       240
+</t>
+  </si>
+  <si>
+    <t>Best + Equal Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.81      0.79      0.80        33
+           1       0.75      0.78      0.76        27
+   micro avg       0.78      0.78      0.78        60
+   macro avg       0.78      0.78      0.78        60
+weighted avg       0.78      0.78      0.78        60
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.97      0.98      0.97       126
+           1       0.97      0.96      0.97       114
+   micro avg       0.97      0.97      0.97       240
+   macro avg       0.97      0.97      0.97       240
+weighted avg       0.97      0.97      0.97       240
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.92      0.88      0.90       126
+           1       0.87      0.91      0.89       114
+   micro avg       0.90      0.90      0.90       240
+   macro avg       0.90      0.90      0.90       240
+weighted avg       0.90      0.90      0.90       240
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.88      0.85      0.86       126
+           1       0.84      0.87      0.85       114
+   micro avg       0.86      0.86      0.86       240
+   macro avg       0.86      0.86      0.86       240
+weighted avg       0.86      0.86      0.86       240
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.89      0.83      0.86       126
+           1       0.83      0.89      0.86       114
+   micro avg       0.86      0.86      0.86       240
+   macro avg       0.86      0.86      0.86       240
+weighted avg       0.86      0.86      0.86       240
 </t>
   </si>
 </sst>
@@ -668,10 +854,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A17" activeCellId="0" pane="topLeft" sqref="A17"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A31" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A59" activeCellId="0" pane="topLeft" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -1195,207 +1381,1477 @@
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="18" s="6" spans="1:11">
-      <c r="A18" t="s">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.9156920077972709</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8731762065095398</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="B18" s="5" t="n">
+        <v>0.915692007797271</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.87317620650954</v>
+      </c>
+      <c r="D18" s="5" t="n">
         <v>0.829</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="5" t="n">
         <v>0.783</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="5" t="n">
         <v>0.848</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="5" t="n">
         <v>0.848</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="5" t="n">
         <v>0.778</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="5" t="n">
         <v>0.778</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="19" s="6" spans="1:11">
-      <c r="A19" t="s">
+      <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="5" t="n">
         <v>0.975494291283765</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.8900112233445567</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" s="5" t="n">
+        <v>0.890011223344557</v>
+      </c>
+      <c r="D19" s="5" t="n">
         <v>0.892</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="5" t="n">
         <v>0.783</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="5" t="n">
         <v>0.879</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="5" t="n">
         <v>0.879</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="5" t="n">
         <v>0.763</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="5" t="n">
         <v>0.763</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="20" s="6" spans="1:11">
-      <c r="A20" t="s">
+      <c r="A20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
-        <v>0.9017683096630464</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="B20" s="5" t="n">
+        <v>0.901768309663046</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0.851851851851852</v>
+      </c>
+      <c r="D20" s="5" t="n">
         <v>0.825</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="5" t="n">
         <v>0.767</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="5" t="n">
         <v>0.8179999999999999</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="5" t="n">
         <v>0.8179999999999999</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="5" t="n">
         <v>0.771</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="5" t="n">
         <v>0.771</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="21" s="6" spans="1:11">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="5" t="n">
         <v>0.833</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="5" t="n">
         <v>0.825</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="5" t="n">
         <v>0.879</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="5" t="n">
         <v>0.852</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="5" t="n">
         <v>0.784</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="22" s="6" spans="1:11">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="5" t="n">
         <v>0.9424951267056531</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.8832772166105499</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22" s="5" t="n">
+        <v>0.88327721661055</v>
+      </c>
+      <c r="D22" s="5" t="n">
         <v>0.842</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="5" t="n">
         <v>0.783</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="5" t="n">
         <v>0.825</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="5" t="n">
         <v>0.848</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="5" t="n">
         <v>0.867</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="5" t="n">
         <v>0.778</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="23" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="31" s="6" spans="1:11"/>
-    <row customHeight="1" ht="18" r="32" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="38" s="6" spans="1:11"/>
-    <row customHeight="1" ht="18" r="39" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="44" s="6" spans="1:11"/>
-    <row customHeight="1" ht="18" r="45" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="52" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="53" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="54" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="55" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="56" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="57" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="58" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="59" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="60" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="61" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="62" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="63" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="64" s="6" spans="1:11"/>
+    <row customHeight="1" ht="13.8" r="23" s="6" spans="1:11">
+      <c r="A23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="24" s="6" spans="1:11">
+      <c r="A24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.814814814814815</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="25" s="6" spans="1:11">
+      <c r="A25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>0.911723753829017</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>0.8462401795735131</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="26" s="6" spans="1:11">
+      <c r="A26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>0.742424242424242</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="27" s="6" spans="1:11">
+      <c r="A27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>0.975076580339738</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>0.8877665544332209</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="28" s="6" spans="1:11">
+      <c r="A28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>0.907128933444723</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>0.868686868686869</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="29" s="6" spans="1:11">
+      <c r="A29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="30" s="6" spans="1:11">
+      <c r="A30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>0.848484848484848</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="31" s="6" spans="1:11">
+      <c r="A31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="32" s="6" spans="1:11">
+      <c r="A32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>0.814814814814815</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="33" s="6" spans="1:11">
+      <c r="A33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>0.911723753829017</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>0.8462401795735131</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="I33" s="5" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="34" s="6" spans="1:11">
+      <c r="A34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>0.975563909774436</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0.890011223344557</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="I34" s="5" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="35" s="6" spans="1:11">
+      <c r="A35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>0.907094124199387</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.868686868686869</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I35" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="36" s="6" spans="1:11">
+      <c r="A36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="37" s="6" spans="1:11">
+      <c r="A37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>0.996170983013088</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>0.876543209876543</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="38" s="6" spans="1:11">
+      <c r="A38" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="39" s="6" spans="1:11">
+      <c r="A39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>0.911723753829017</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>0.8462401795735131</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="40" s="6" spans="1:11">
+      <c r="A40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>0.975703146755778</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.88327721661055</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="41" s="6" spans="1:11">
+      <c r="A41" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>0.907128933444723</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>0.868686868686869</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I41" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="42" s="6" spans="1:11">
+      <c r="A42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="43" s="6" spans="1:11">
+      <c r="A43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>0.946254525201894</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>0.879910213243547</v>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="I43" s="5" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="44" s="6" spans="1:11">
+      <c r="A44" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="45" s="6" spans="1:11">
+      <c r="A45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>0.814814814814815</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="I45" s="5" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="46" s="6" spans="1:11">
+      <c r="A46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>0.9171539961013641</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>0.886644219977553</v>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="I46" s="5" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="47" s="6" spans="1:11">
+      <c r="A47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>0.840628507295174</v>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="I47" s="5" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="48" s="6" spans="1:11">
+      <c r="A48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>0.975703146755778</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>0.886644219977553</v>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="I48" s="5" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="49" s="6" spans="1:11">
+      <c r="A49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="5" t="n">
+        <v>0.907024505708716</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>0.868686868686869</v>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H49" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I49" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="50" s="6" spans="1:11">
+      <c r="A50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="I50" s="5" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="51" s="6" spans="1:11">
+      <c r="A51" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>0.88327721661055</v>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="52" s="6" spans="1:11">
+      <c r="A52" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="53" s="6" spans="1:11">
+      <c r="A53" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>0.814814814814815</v>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="H53" s="5" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="I53" s="5" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="54" s="6" spans="1:11">
+      <c r="A54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>0.9171539961013641</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>0.886644219977553</v>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="I54" s="5" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="55" s="6" spans="1:11">
+      <c r="A55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>0.976538568643832</v>
+      </c>
+      <c r="C55" s="5" t="n">
+        <v>0.886644219977553</v>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="H55" s="5" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="I55" s="5" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="56" s="6" spans="1:11">
+      <c r="A56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>0.907059314954052</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>0.868686868686869</v>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I56" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="57" s="6" spans="1:11">
+      <c r="A57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="H57" s="5" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I57" s="5" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="58" s="6" spans="1:11">
+      <c r="A58" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="5" t="n">
+        <v>0.996031746031746</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="H58" s="5" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="I58" s="5" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="59" s="6" spans="1:11">
+      <c r="A59" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="60" s="6" spans="1:11">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9171539961013645</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.8866442199775533</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="J60" t="s">
+        <v>36</v>
+      </c>
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="61" s="6" spans="1:11">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9760512392091339</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.8866442199775533</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="J61" t="s">
+        <v>58</v>
+      </c>
+      <c r="K61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="62" s="6" spans="1:11">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9070593149540519</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.8686868686868686</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J62" t="s">
+        <v>44</v>
+      </c>
+      <c r="K62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="63" s="6" spans="1:11">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="J63" t="s">
+        <v>59</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="64" s="6" spans="1:11">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9469507101086049</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.8911335578002244</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="J64" t="s">
+        <v>60</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row customHeight="1" ht="13.8" r="65" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="66" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="67" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="68" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="69" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="70" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="113" s="6" spans="1:11"/>
+    <row customHeight="1" ht="13.8" r="71" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="114" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="115" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="116" s="6" spans="1:11"/>
@@ -1627,20 +3083,20 @@
     <row customHeight="1" ht="13.8" r="342" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="343" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="344" s="6" spans="1:11"/>
-    <row customHeight="1" ht="18" r="345" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="346" s="6" spans="1:11"/>
-    <row customHeight="1" ht="18" r="347" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="354" s="6" spans="1:11"/>
+    <row customHeight="1" ht="13.8" r="345" s="6" spans="1:11"/>
+    <row customHeight="1" ht="18" r="346" s="6" spans="1:11"/>
+    <row customHeight="1" ht="13.8" r="347" s="6" spans="1:11"/>
+    <row customHeight="1" ht="18" r="348" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="355" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="356" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="357" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="358" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="359" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="360" s="6" spans="1:11"/>
-    <row customHeight="1" ht="18" r="361" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="373" s="6" spans="1:11"/>
-    <row customHeight="1" ht="18" r="374" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="387" s="6" spans="1:11"/>
+    <row customHeight="1" ht="13.8" r="361" s="6" spans="1:11"/>
+    <row customHeight="1" ht="18" r="362" s="6" spans="1:11"/>
+    <row customHeight="1" ht="13.8" r="374" s="6" spans="1:11"/>
+    <row customHeight="1" ht="18" r="375" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="388" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="389" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="390" s="6" spans="1:11"/>
@@ -1656,8 +3112,8 @@
     <row customHeight="1" ht="13.8" r="400" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="401" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="402" s="6" spans="1:11"/>
-    <row customHeight="1" ht="18" r="403" s="6" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="415" s="6" spans="1:11"/>
+    <row customHeight="1" ht="13.8" r="403" s="6" spans="1:11"/>
+    <row customHeight="1" ht="18" r="404" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="416" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="417" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="418" s="6" spans="1:11"/>
@@ -1883,6 +3339,7 @@
     <row customHeight="1" ht="13.8" r="638" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="639" s="6" spans="1:11"/>
     <row customHeight="1" ht="13.8" r="640" s="6" spans="1:11"/>
+    <row customHeight="1" ht="13.8" r="641" s="6" spans="1:11"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
